--- a/Чек-лист-приклад (UK).xlsx
+++ b/Чек-лист-приклад (UK).xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My\IT_Step\10_usability_local_WebMobile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alry Line\Desktop\Mystep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92CFC8FE-F9FC-4C82-AB74-3D36ACD98133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Верстка" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="114">
   <si>
     <t>Браузер версія</t>
   </si>
@@ -363,11 +362,20 @@
   <si>
     <t>Логотип клікабелен та веде на головну сторінку</t>
   </si>
+  <si>
+    <t>Gchrome</t>
+  </si>
+  <si>
+    <t>Opera</t>
+  </si>
+  <si>
+    <t>Edge</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -658,10 +666,82 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Гіперпосилання" xfId="1" builtinId="8"/>
-    <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="40">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEFEFEF"/>
+          <bgColor rgb="FFEFEFEF"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF000000"/>
@@ -1585,7 +1665,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -20739,27 +20819,27 @@
     <mergeCell ref="A15:D15"/>
   </mergeCells>
   <conditionalFormatting sqref="B1:D1 B3:D4 F3:F5 B26:D1000 B17:D24 B5">
-    <cfRule type="containsText" dxfId="35" priority="1" operator="containsText" text="not run">
+    <cfRule type="containsText" dxfId="39" priority="1" operator="containsText" text="not run">
       <formula>NOT(ISERROR(SEARCH(("not run"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:D1 B3:D4 F3:F5 B26:D1000 B17:D24 B5">
-    <cfRule type="containsText" dxfId="34" priority="2" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="38" priority="2" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH(("Passed"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:D1 B3:D4 F3:F5 B26:D1000 B17:D24 B5">
-    <cfRule type="containsText" dxfId="33" priority="3" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="37" priority="3" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:D1 B3:D4 F3:F5 B26:D1000 B17:D24 B5">
-    <cfRule type="containsText" dxfId="32" priority="4" operator="containsText" text="Skipped">
+    <cfRule type="containsText" dxfId="36" priority="4" operator="containsText" text="Skipped">
       <formula>NOT(ISERROR(SEARCH(("Skipped"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E4" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -20767,11 +20847,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -20794,13 +20874,13 @@
         <v>62</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>82</v>
@@ -20825,8 +20905,8 @@
       <c r="B2" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>10</v>
+      <c r="C2" s="13" t="s">
+        <v>6</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>10</v>
@@ -20869,8 +20949,8 @@
       <c r="B4" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>11</v>
+      <c r="C4" s="13" t="s">
+        <v>6</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>11</v>
@@ -21141,24 +21221,44 @@
       <c r="H23" s="20"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:E2 G3:G5 C17:E23 C3">
-    <cfRule type="containsText" dxfId="31" priority="1" operator="containsText" text="not run">
+  <conditionalFormatting sqref="C1:E2 G3:G5 C17:E23 C2:C3">
+    <cfRule type="containsText" dxfId="35" priority="5" operator="containsText" text="not run">
       <formula>NOT(ISERROR(SEARCH(("not run"),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:E2 G3:G5 C17:E23 C3">
-    <cfRule type="containsText" dxfId="30" priority="2" operator="containsText" text="Passed">
+  <conditionalFormatting sqref="C1:E2 G3:G5 C17:E23 C2:C3">
+    <cfRule type="containsText" dxfId="34" priority="6" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH(("Passed"),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:E2 G3:G5 C17:E23 C3">
-    <cfRule type="containsText" dxfId="29" priority="3" operator="containsText" text="Failed">
+  <conditionalFormatting sqref="C1:E2 G3:G5 C17:E23 C2:C3">
+    <cfRule type="containsText" dxfId="33" priority="7" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:E2 G3:G5 C17:E23 C3">
-    <cfRule type="containsText" dxfId="28" priority="4" operator="containsText" text="Skipped">
+  <conditionalFormatting sqref="C1:E2 G3:G5 C17:E23 C2:C3">
+    <cfRule type="containsText" dxfId="32" priority="8" operator="containsText" text="Skipped">
       <formula>NOT(ISERROR(SEARCH(("Skipped"),(C1))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="not run">
+      <formula>NOT(ISERROR(SEARCH(("not run"),(C4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH(("Passed"),(C4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(C4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4">
+    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="Skipped">
+      <formula>NOT(ISERROR(SEARCH(("Skipped"),(C4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21167,7 +21267,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -41386,74 +41486,74 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:D1 G3:G5 C3 F1:H1">
-    <cfRule type="containsText" dxfId="27" priority="1" operator="containsText" text="not run">
+    <cfRule type="containsText" dxfId="31" priority="1" operator="containsText" text="not run">
       <formula>NOT(ISERROR(SEARCH(("not run"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36:H36 B37:H37 B27:H35 E7:H26">
-    <cfRule type="containsText" dxfId="26" priority="2" operator="containsText" text="not run">
+    <cfRule type="containsText" dxfId="30" priority="2" operator="containsText" text="not run">
       <formula>NOT(ISERROR(SEARCH(("not run"),(B7))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:D1 G3:G5 C3 F1:H1">
-    <cfRule type="containsText" dxfId="25" priority="3" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="29" priority="3" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH(("Passed"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36:H36 B37:H37 B27:H35 E7:H26">
-    <cfRule type="containsText" dxfId="24" priority="4" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="28" priority="4" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH(("Passed"),(B7))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:D1 G3:G5 C3 F1:H1">
-    <cfRule type="containsText" dxfId="23" priority="5" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="27" priority="5" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36:H36 B37:H37 B27:H35 E7:H26">
-    <cfRule type="containsText" dxfId="22" priority="6" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="26" priority="6" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(B7))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:D1 G3:G5 C3 F1:H1">
-    <cfRule type="containsText" dxfId="21" priority="7" operator="containsText" text="Skipped">
+    <cfRule type="containsText" dxfId="25" priority="7" operator="containsText" text="Skipped">
       <formula>NOT(ISERROR(SEARCH(("Skipped"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36:H36 B37:H37 B27:H35 E7:H26">
-    <cfRule type="containsText" dxfId="20" priority="8" operator="containsText" text="Skipped">
+    <cfRule type="containsText" dxfId="24" priority="8" operator="containsText" text="Skipped">
       <formula>NOT(ISERROR(SEARCH(("Skipped"),(B7))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G5">
-    <cfRule type="containsText" dxfId="19" priority="9" operator="containsText" text="not run">
+    <cfRule type="containsText" dxfId="23" priority="9" operator="containsText" text="not run">
       <formula>NOT(ISERROR(SEARCH(("not run"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G5">
-    <cfRule type="containsText" dxfId="18" priority="10" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="22" priority="10" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH(("Passed"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G5">
-    <cfRule type="containsText" dxfId="17" priority="11" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="21" priority="11" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G5">
-    <cfRule type="containsText" dxfId="16" priority="12" operator="containsText" text="Skipped">
+    <cfRule type="containsText" dxfId="20" priority="12" operator="containsText" text="Skipped">
       <formula>NOT(ISERROR(SEARCH(("Skipped"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="E4" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -59570,54 +59670,54 @@
     <mergeCell ref="E4:E5"/>
   </mergeCells>
   <conditionalFormatting sqref="B1:B3 C2:D5 E1:F3 G1:J1000 B5:B7 F8:F1000 B20:B28 B30:B1000 D30:D1000 C49:C1000 C7:D28 D6 D1 E6:E1000 E4">
-    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="not run">
+    <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="not run">
       <formula>NOT(ISERROR(SEARCH(("not run"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B3 C2:D5 E1:F3 G1:J1000 B5:B7 F8:F1000 B20:B28 B30:B1000 D30:D1000 C49:C1000 C7:D28 D6 D1 E6:E1000 E4">
-    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="18" priority="2" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH(("Passed"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B3 C2:D5 E1:F3 G1:J1000 B5:B7 F8:F1000 B20:B28 B30:B1000 D30:D1000 C49:C1000 C7:D28 D6 D1 E6:E1000 E4">
-    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B3 C2:D5 E1:F3 G1:J1000 B5:B7 F8:F1000 B20:B28 B30:B1000 D30:D1000 C49:C1000 C7:D28 D6 D1 E6:E1000 E4">
-    <cfRule type="containsText" dxfId="12" priority="4" operator="containsText" text="Skipped">
+    <cfRule type="containsText" dxfId="16" priority="4" operator="containsText" text="Skipped">
       <formula>NOT(ISERROR(SEARCH(("Skipped"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="not run">
+    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="not run">
       <formula>NOT(ISERROR(SEARCH(("not run"),(A2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="containsText" dxfId="10" priority="6" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="14" priority="6" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH(("Passed"),(A2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="13" priority="7" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(A2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text="Skipped">
+    <cfRule type="containsText" dxfId="12" priority="8" operator="containsText" text="Skipped">
       <formula>NOT(ISERROR(SEARCH(("Skipped"),(A2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="C6" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -59935,47 +60035,47 @@
     <mergeCell ref="F3:F4"/>
   </mergeCells>
   <conditionalFormatting sqref="B1:B2 E1:F2 B4:B6 D5 D1 E3 C2:D4 F7:F19 C6:D19 E5:E19 B34:F37">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="not run">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="not run">
       <formula>NOT(ISERROR(SEARCH(("not run"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B2 E1:F2 B4:B6 D5 D1 E3 C2:D4 F7:F19 C6:D19 E5:E19 B34:F37">
-    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH(("Passed"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B2 E1:F2 B4:B6 D5 D1 E3 C2:D4 F7:F19 C6:D19 E5:E19 B34:F37">
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B2 E1:F2 B4:B6 D5 D1 E3 C2:D4 F7:F19 C6:D19 E5:E19 B34:F37">
-    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="Skipped">
+    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="Skipped">
       <formula>NOT(ISERROR(SEARCH(("Skipped"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="not run">
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="not run">
       <formula>NOT(ISERROR(SEARCH(("not run"),(A2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="containsText" dxfId="2" priority="6" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH(("Passed"),(A2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="containsText" dxfId="1" priority="7" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(A2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="containsText" dxfId="0" priority="8" operator="containsText" text="Skipped">
+    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="Skipped">
       <formula>NOT(ISERROR(SEARCH(("Skipped"),(A2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="C5" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
